--- a/语音文件名说明.xlsx
+++ b/语音文件名说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1065,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B160"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1076,7 +1076,7 @@
     <col min="2" max="2" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1148,188 +1148,257 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>191</v>
+      </c>
+      <c r="E32">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">

--- a/语音文件名说明.xlsx
+++ b/语音文件名说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1091,6 +1091,9 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -1099,6 +1102,9 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -1107,6 +1113,9 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -1115,6 +1124,9 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -1123,6 +1135,9 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -1131,6 +1146,9 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -1139,6 +1157,9 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -1147,6 +1168,9 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -1156,7 +1180,7 @@
         <v>169</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1167,7 +1191,7 @@
         <v>170</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1178,7 +1202,7 @@
         <v>171</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -1189,7 +1213,7 @@
         <v>172</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -1200,7 +1224,7 @@
         <v>173</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -1211,7 +1235,7 @@
         <v>174</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -1222,7 +1246,7 @@
         <v>175</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -1233,7 +1257,7 @@
         <v>176</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -1244,7 +1268,7 @@
         <v>177</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -1255,7 +1279,7 @@
         <v>178</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -1266,7 +1290,7 @@
         <v>179</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -1277,7 +1301,7 @@
         <v>180</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1288,7 +1312,7 @@
         <v>181</v>
       </c>
       <c r="E22">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1299,7 +1323,7 @@
         <v>182</v>
       </c>
       <c r="E23">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1310,7 +1334,7 @@
         <v>183</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -1321,7 +1345,7 @@
         <v>184</v>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -1332,7 +1356,7 @@
         <v>185</v>
       </c>
       <c r="E26">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -1343,7 +1367,7 @@
         <v>186</v>
       </c>
       <c r="E27">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1354,7 +1378,7 @@
         <v>187</v>
       </c>
       <c r="E28">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1365,7 +1389,7 @@
         <v>188</v>
       </c>
       <c r="E29">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -1376,7 +1400,7 @@
         <v>189</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -1387,7 +1411,7 @@
         <v>190</v>
       </c>
       <c r="E31">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -1398,743 +1422,1127 @@
         <v>191</v>
       </c>
       <c r="E32">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>51</v>
       </c>
       <c r="B43" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>53</v>
       </c>
       <c r="B45" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>54</v>
       </c>
       <c r="B46" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>56</v>
       </c>
       <c r="B48" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>57</v>
       </c>
       <c r="B49" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>58</v>
       </c>
       <c r="B50" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>59</v>
       </c>
       <c r="B51" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>60</v>
       </c>
       <c r="B52" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>61</v>
       </c>
       <c r="B53" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>62</v>
       </c>
       <c r="B54" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>63</v>
       </c>
       <c r="B55" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>64</v>
       </c>
       <c r="B56" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>65</v>
       </c>
       <c r="B57" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>66</v>
       </c>
       <c r="B58" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>67</v>
       </c>
       <c r="B59" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>68</v>
       </c>
       <c r="B60" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>69</v>
       </c>
       <c r="B61" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>70</v>
       </c>
       <c r="B62" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>71</v>
       </c>
       <c r="B63" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>72</v>
       </c>
       <c r="B64" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E133">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E136">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E138">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E139">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E140">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E141">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E145">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E146">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E147">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E148">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E149">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E150">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E151">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E152">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E153">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E154">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E155">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E156">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E157">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E158">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="E159">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>168</v>
+      </c>
+      <c r="E160">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/语音文件名说明.xlsx
+++ b/语音文件名说明.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="333">
   <si>
     <t>1号卡时间快到了</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,6 +718,370 @@
   </si>
   <si>
     <t>老化音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作超时，测试取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试忙，1号超时！</t>
+  </si>
+  <si>
+    <t>测试忙，2号超时！</t>
+  </si>
+  <si>
+    <t>测试忙，3号超时！</t>
+  </si>
+  <si>
+    <t>测试忙，4号超时！</t>
+  </si>
+  <si>
+    <t>测试忙，5号超时！</t>
+  </si>
+  <si>
+    <t>测试忙，6号超时！</t>
+  </si>
+  <si>
+    <t>测试忙，7号超时！</t>
+  </si>
+  <si>
+    <t>测试忙，8号超时！</t>
+  </si>
+  <si>
+    <t>n1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>n3</t>
+  </si>
+  <si>
+    <t>n4</t>
+  </si>
+  <si>
+    <t>n5</t>
+  </si>
+  <si>
+    <t>n6</t>
+  </si>
+  <si>
+    <t>n7</t>
+  </si>
+  <si>
+    <t>n8</t>
+  </si>
+  <si>
+    <t>n9</t>
+  </si>
+  <si>
+    <t>n10</t>
+  </si>
+  <si>
+    <t>n11</t>
+  </si>
+  <si>
+    <t>n12</t>
+  </si>
+  <si>
+    <t>n13</t>
+  </si>
+  <si>
+    <t>n14</t>
+  </si>
+  <si>
+    <t>n15</t>
+  </si>
+  <si>
+    <t>n16</t>
+  </si>
+  <si>
+    <t>n17</t>
+  </si>
+  <si>
+    <t>n18</t>
+  </si>
+  <si>
+    <t>n19</t>
+  </si>
+  <si>
+    <t>n20</t>
+  </si>
+  <si>
+    <t>n21</t>
+  </si>
+  <si>
+    <t>n22</t>
+  </si>
+  <si>
+    <t>n23</t>
+  </si>
+  <si>
+    <t>n24</t>
+  </si>
+  <si>
+    <t>n25</t>
+  </si>
+  <si>
+    <t>n26</t>
+  </si>
+  <si>
+    <t>n27</t>
+  </si>
+  <si>
+    <t>n28</t>
+  </si>
+  <si>
+    <t>n29</t>
+  </si>
+  <si>
+    <t>n30</t>
+  </si>
+  <si>
+    <t>试剂卡温度异常</t>
+  </si>
+  <si>
+    <t>试剂卡过期！</t>
+  </si>
+  <si>
+    <t>试剂卡未加样！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试剂卡已使用！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码读取失败！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境温度异常！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建失败！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止常规测试！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请放入1号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请放入2号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请放入3号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请放入4号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请放入5号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请放入6号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请放入7号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请放入8号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开机音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传动模块错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码模块错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集模块错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发光模块错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储模块错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止常规测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请选择操作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入样品编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请插入试剂卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码读取失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误，试剂卡变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试剂卡已使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试剂卡过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试剂卡未加样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止，排队位已满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止，有卡即将测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请放入1号排队位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请放入2号排队位</t>
+  </si>
+  <si>
+    <t>请放入3号排队位</t>
+  </si>
+  <si>
+    <t>请放入4号排队位</t>
+  </si>
+  <si>
+    <t>请放入5号排队位</t>
+  </si>
+  <si>
+    <t>请放入6号排队位</t>
+  </si>
+  <si>
+    <t>请放入7号排队位</t>
+  </si>
+  <si>
+    <t>请放入8号排队位</t>
+  </si>
+  <si>
+    <t>请清空检测口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n31</t>
+  </si>
+  <si>
+    <t>n32</t>
+  </si>
+  <si>
+    <t>n33</t>
+  </si>
+  <si>
+    <t>n34</t>
+  </si>
+  <si>
+    <t>n35</t>
+  </si>
+  <si>
+    <t>n36</t>
+  </si>
+  <si>
+    <t>n37</t>
+  </si>
+  <si>
+    <t>n38</t>
+  </si>
+  <si>
+    <t>n39</t>
+  </si>
+  <si>
+    <t>n40</t>
+  </si>
+  <si>
+    <t>n41</t>
+  </si>
+  <si>
+    <t>n42</t>
+  </si>
+  <si>
+    <t>n43</t>
+  </si>
+  <si>
+    <t>n44</t>
+  </si>
+  <si>
+    <t>n45</t>
+  </si>
+  <si>
+    <t>n46</t>
+  </si>
+  <si>
+    <t>n47</t>
+  </si>
+  <si>
+    <t>n48</t>
+  </si>
+  <si>
+    <t>n49</t>
+  </si>
+  <si>
+    <t>n50</t>
+  </si>
+  <si>
+    <t>n51</t>
+  </si>
+  <si>
+    <t>n52</t>
+  </si>
+  <si>
+    <t>n53</t>
+  </si>
+  <si>
+    <t>n54</t>
+  </si>
+  <si>
+    <t>n55</t>
+  </si>
+  <si>
+    <t>测试中，禁止操作！</t>
+  </si>
+  <si>
+    <t>n56</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1067,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2550,4 +2916,948 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>277</v>
+      </c>
+      <c r="B25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>331</v>
+      </c>
+      <c r="B22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>298</v>
+      </c>
+      <c r="B24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>299</v>
+      </c>
+      <c r="B25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>300</v>
+      </c>
+      <c r="B26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>303</v>
+      </c>
+      <c r="B29" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>304</v>
+      </c>
+      <c r="B30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s">
+        <v>306</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" t="s">
+        <v>307</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" t="s">
+        <v>308</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" t="s">
+        <v>309</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" t="s">
+        <v>311</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>312</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" t="s">
+        <v>314</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" t="s">
+        <v>315</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" t="s">
+        <v>316</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" t="s">
+        <v>317</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" t="s">
+        <v>318</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" t="s">
+        <v>319</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>231</v>
+      </c>
+      <c r="B45" t="s">
+        <v>320</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" t="s">
+        <v>321</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>305</v>
+      </c>
+      <c r="B47" t="s">
+        <v>322</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>323</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>324</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>325</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>326</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>327</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>328</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>329</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>330</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" t="s">
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/语音文件名说明.xlsx
+++ b/语音文件名说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="339">
   <si>
     <t>1号卡时间快到了</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1083,6 +1083,28 @@
   <si>
     <t>n56</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排队模块失去连接，请修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止，排队模块失去连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持的试剂卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n58</t>
+  </si>
+  <si>
+    <t>n59</t>
   </si>
 </sst>
 </file>
@@ -3232,10 +3254,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3856,6 +3878,30 @@
         <v>332</v>
       </c>
     </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>336</v>
+      </c>
+      <c r="B57" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>333</v>
+      </c>
+      <c r="B58" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>334</v>
+      </c>
+      <c r="B59" t="s">
+        <v>338</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
